--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C5CEB-5B8F-4B82-B5B4-791DEFDD6862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4141F36E-F32F-461B-B82E-189B0C96F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="4770" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
   <si>
     <t>string</t>
   </si>
@@ -599,9 +599,6 @@
     <t>circle</t>
   </si>
   <si>
-    <t>100|0</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
   </si>
   <si>
     <t>random</t>
-  </si>
-  <si>
-    <t>0|360|100|120</t>
   </si>
   <si>
     <t>danmaku_damage</t>
@@ -744,6 +738,22 @@
   </si>
   <si>
     <t>is_follow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5|-30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>120|0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcrt_keine_sc1_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|360|20|160</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +941,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,7 +1283,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -1409,7 +1422,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>13</v>
@@ -1492,7 +1505,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
@@ -1519,13 +1532,13 @@
         <v>46</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R3" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -1534,7 +1547,7 @@
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W3" t="s">
         <v>50</v>
@@ -1566,23 +1579,23 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
+      <c r="E4" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
         <v>999999</v>
@@ -1591,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
         <v>61</v>
       </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>62</v>
-      </c>
-      <c r="R4" t="s">
-        <v>63</v>
       </c>
       <c r="S4">
         <v>30</v>
@@ -1608,10 +1621,10 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="C5" t="str">
         <f>[1]danma!$A$4</f>
@@ -1620,23 +1633,23 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
+      <c r="E5" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
         <v>999999</v>
@@ -1645,16 +1658,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>62</v>
-      </c>
-      <c r="R5" t="s">
-        <v>63</v>
       </c>
       <c r="S5">
         <f>[2]Enemy!$G$16</f>
@@ -1663,10 +1676,10 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="C6" t="str">
         <f>[1]danma!$A$4</f>
@@ -1675,23 +1688,23 @@
       <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
+      <c r="E6" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
         <v>999999</v>
@@ -1700,16 +1713,16 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
         <v>61</v>
       </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>63</v>
       </c>
       <c r="S6">
         <f>[2]Enemy!$G$16</f>
@@ -1718,10 +1731,10 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="C7" t="str">
         <f>[1]danma!$A$7</f>
@@ -1731,47 +1744,47 @@
         <v>57</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L7">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
         <v>61</v>
       </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>62</v>
-      </c>
-      <c r="R7" t="s">
-        <v>63</v>
       </c>
       <c r="S7">
         <f>[2]Enemy!$G$16</f>
         <v>30</v>
       </c>
       <c r="T7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s">
         <v>74</v>
-      </c>
-      <c r="U7" t="s">
-        <v>75</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1783,10 +1796,10 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="C8" t="str">
         <f>[1]danma!$A$7</f>
@@ -1796,64 +1809,64 @@
         <v>57</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H8" s="14" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
+        <v>0.05</v>
+      </c>
+      <c r="L8">
         <v>60</v>
-      </c>
-      <c r="K8">
-        <v>0.02</v>
-      </c>
-      <c r="L8">
-        <v>150</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
         <v>61</v>
       </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>62</v>
-      </c>
-      <c r="R8" t="s">
-        <v>63</v>
       </c>
       <c r="S8">
         <f>[2]Enemy!$G$16</f>
         <v>30</v>
       </c>
       <c r="T8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" t="s">
         <v>74</v>
-      </c>
-      <c r="U8" t="s">
-        <v>75</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="str">
         <f>[1]danma!$A$8</f>
@@ -1863,40 +1876,40 @@
         <v>57</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>999999</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
         <v>61</v>
       </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>62</v>
-      </c>
-      <c r="R9" t="s">
-        <v>63</v>
       </c>
       <c r="S9">
         <f>[2]Enemy!$G$16</f>
@@ -1904,11 +1917,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>79</v>
+      <c r="A10" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" t="str">
         <f>[1]danma!$A$8</f>
@@ -1918,40 +1931,40 @@
         <v>57</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="K10">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>999999</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
         <v>61</v>
       </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>62</v>
-      </c>
-      <c r="R10" t="s">
-        <v>63</v>
       </c>
       <c r="S10">
         <f>[2]Enemy!$G$16</f>
@@ -1960,59 +1973,59 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="str">
         <f>[1]danma!$A$6</f>
         <v>dmk_mentos</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" t="s">
         <v>62</v>
-      </c>
-      <c r="R11" t="s">
-        <v>63</v>
       </c>
       <c r="S11">
         <v>30</v>
       </c>
       <c r="X11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s">
         <v>74</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>75</v>
       </c>
       <c r="Z11">
         <v>1</v>

--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4141F36E-F32F-461B-B82E-189B0C96F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4770" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>string</t>
   </si>
@@ -48,12 +43,12 @@
     <t>int</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>array_str</t>
   </si>
   <si>
@@ -67,6 +62,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">发弹规则
 </t>
     </r>
@@ -75,7 +77,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,7 +87,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,7 +98,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,7 +117,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,7 +128,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,7 +141,29 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发弹方向是否持续跟随
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若发弹点初始正方向不为世界，则其后续是否还会一直根据目标的位置而改变正方向。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,7 +174,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,7 +185,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -178,7 +195,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,7 +206,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,7 +226,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,7 +237,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -236,7 +249,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,7 +260,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,7 +272,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -273,7 +283,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +296,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +307,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +322,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +333,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,7 +351,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,7 +362,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,7 +373,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,7 +385,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +396,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +411,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -423,7 +422,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,7 +434,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,7 +445,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -460,7 +456,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +468,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -485,7 +479,6 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +494,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +505,6 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -542,6 +533,9 @@
     <t>create_front</t>
   </si>
   <si>
+    <t>is_follow</t>
+  </si>
+  <si>
     <t>rotate_rule</t>
   </si>
   <si>
@@ -566,15 +560,24 @@
     <t>moving_parameter</t>
   </si>
   <si>
+    <t>danmaku_moving_rule</t>
+  </si>
+  <si>
     <t>danmaku_moving_parameter</t>
   </si>
   <si>
+    <t>danmaku_damage</t>
+  </si>
+  <si>
     <t>creator_apart_rule</t>
   </si>
   <si>
     <t>creator_apart_var</t>
   </si>
   <si>
+    <t>creator_apart_point</t>
+  </si>
+  <si>
     <t>creator_apart_parameter</t>
   </si>
   <si>
@@ -599,6 +602,9 @@
     <t>circle</t>
   </si>
   <si>
+    <t>200|0</t>
+  </si>
+  <si>
     <t>character</t>
   </si>
   <si>
@@ -620,6 +626,9 @@
     <t>慧音一非中的发弹点，发射十字形小玉，会顺时针旋转</t>
   </si>
   <si>
+    <t>120|0</t>
+  </si>
+  <si>
     <t>world</t>
   </si>
   <si>
@@ -644,6 +653,9 @@
     <t>慧音一符中的发弹点，发射平行激光</t>
   </si>
   <si>
+    <t>500|90</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
@@ -656,112 +668,80 @@
     <t>慧音一符中的发弹点，发射自机狙激光</t>
   </si>
   <si>
+    <t>500|0</t>
+  </si>
+  <si>
     <t>dmk_laser</t>
   </si>
   <si>
     <t>dcrt_keine_sc1_3</t>
   </si>
   <si>
+    <t>慧音一符中的发弹点，发射顺时针旋转激光段</t>
+  </si>
+  <si>
+    <t>discrete_uniform</t>
+  </si>
+  <si>
     <t>0.5|30</t>
   </si>
   <si>
+    <t>dcrt_keine_sc1_4</t>
+  </si>
+  <si>
+    <t>慧音一符中的发弹点，发射逆时针旋转激光段</t>
+  </si>
+  <si>
+    <t>0.5|-30</t>
+  </si>
+  <si>
+    <t>dcrt_keine_ns2_1</t>
+  </si>
+  <si>
     <t>慧音二非中的发弹点，发射随机弹中玉，弹幕一段时间后变成小玉</t>
   </si>
   <si>
     <t>random</t>
   </si>
   <si>
-    <t>danmaku_damage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>danmaku_moving_rule</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>creator_apart_point</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>character</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>discrete_uniform</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcrt_keine_ns2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧音一符中的发弹点，发射顺时针旋转激光段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>慧音一符中的发弹点，发射逆时针旋转激光段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500|90</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发弹方向是否持续跟随
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>若发弹点初始正方向不为世界，则其后续是否还会一直根据目标的位置而改变正方向。</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_follow</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5|-30</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>120|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcrt_keine_sc1_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0|360|20|160</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcrt_keine_sc2_1</t>
+  </si>
+  <si>
+    <t>慧音二符中的发弹点，发射能够点燃战船敌人的环形火焰弹</t>
+  </si>
+  <si>
+    <t>dmk_fire</t>
+  </si>
+  <si>
+    <t>100|0</t>
+  </si>
+  <si>
+    <t>dcrt_keine_sc2_2</t>
+  </si>
+  <si>
+    <t>慧音二符中的发弹点，是被点燃的战船与锁链发射的随机小玉</t>
+  </si>
+  <si>
+    <t>dmk_ball</t>
+  </si>
+  <si>
+    <t>0|360|60|120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,7 +753,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -781,15 +760,157 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -797,15 +918,6 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -813,27 +925,11 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,30 +938,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -888,13 +1170,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,11 +1440,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,38 +1461,112 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="keine_routine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="M6">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="M17">
+            <v>30</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="danma"/>
     </sheetNames>
@@ -1005,12 +1603,9 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Enemy"/>
     </sheetNames>
@@ -1018,6 +1613,21 @@
       <sheetData sheetId="0">
         <row r="16">
           <cell r="G16">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
             <v>30</v>
           </cell>
         </row>
@@ -1271,52 +1881,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="71.125" customWidth="1"/>
+    <col min="2" max="2" width="71.1272727272727" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="29.25" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="28.8727272727273" customWidth="1"/>
+    <col min="8" max="8" width="29.2545454545455" customWidth="1"/>
+    <col min="9" max="9" width="22.8727272727273" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="17.3727272727273" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="29.125" customWidth="1"/>
-    <col min="14" max="15" width="26.875" customWidth="1"/>
+    <col min="13" max="13" width="29.1272727272727" customWidth="1"/>
+    <col min="14" max="15" width="26.8727272727273" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
     <col min="17" max="17" width="24.5" customWidth="1"/>
     <col min="18" max="18" width="27.5" customWidth="1"/>
-    <col min="19" max="19" width="16.25" customWidth="1"/>
-    <col min="20" max="20" width="20.875" customWidth="1"/>
-    <col min="21" max="21" width="19.625" customWidth="1"/>
-    <col min="22" max="22" width="21.875" customWidth="1"/>
-    <col min="23" max="23" width="26.375" customWidth="1"/>
-    <col min="24" max="24" width="20.875" customWidth="1"/>
-    <col min="25" max="25" width="27.125" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="26.375" customWidth="1"/>
+    <col min="19" max="19" width="16.2545454545455" customWidth="1"/>
+    <col min="20" max="20" width="20.8727272727273" customWidth="1"/>
+    <col min="21" max="21" width="19.6272727272727" customWidth="1"/>
+    <col min="22" max="22" width="21.8727272727273" customWidth="1"/>
+    <col min="23" max="23" width="26.3727272727273" customWidth="1"/>
+    <col min="24" max="24" width="20.8727272727273" customWidth="1"/>
+    <col min="25" max="25" width="27.1272727272727" customWidth="1"/>
+    <col min="26" max="26" width="21.8727272727273" customWidth="1"/>
+    <col min="27" max="27" width="26.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="15" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -1348,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>0</v>
@@ -1372,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>0</v>
@@ -1399,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="198" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="198" customHeight="1" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1422,177 +2033,177 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AA3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C4" t="str">
-        <f>[1]danma!$A$5</f>
+        <f>[2]danma!$A$5</f>
         <v>dmk_rice</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>1.5</v>
@@ -1604,49 +2215,50 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4">
+        <f>[1]keine_routine!$M$6</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[2]danma!$A$4</f>
+        <v>dmk_ball</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="S4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="str">
-        <f>[1]danma!$A$4</f>
-        <v>dmk_ball</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>97</v>
+      <c r="E5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K5">
         <v>0.4</v>
@@ -1658,50 +2270,50 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5">
+        <f>[3]Enemy!$G$16</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[2]danma!$A$4</f>
+        <v>dmk_ball</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="S5">
-        <f>[2]Enemy!$G$16</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="str">
-        <f>[1]danma!$A$4</f>
-        <v>dmk_ball</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>97</v>
+      <c r="E6" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <v>0.4</v>
@@ -1713,47 +2325,47 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6">
+        <f>[3]Enemy!$G$17</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="str">
+        <f>[2]danma!$A$7</f>
+        <v>dmk_laserpre</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="S6">
-        <f>[2]Enemy!$G$16</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="str">
-        <f>[1]danma!$A$7</f>
-        <v>dmk_laserpre</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>90</v>
+      <c r="E7" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
         <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
       </c>
       <c r="K7">
         <v>0.05</v>
@@ -1765,63 +2377,63 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S7">
-        <f>[2]Enemy!$G$16</f>
+        <f>[1]keine_routine!$M$7</f>
         <v>30</v>
       </c>
       <c r="T7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7" t="str">
-        <f>[1]danma!$A$8</f>
+        <f>[2]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C8" t="str">
-        <f>[1]danma!$A$7</f>
+        <f>[2]danma!$A$7</f>
         <v>dmk_laserpre</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="14" t="b">
+      <c r="G8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K8">
         <v>0.05</v>
@@ -1833,62 +2445,62 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S8">
-        <f>[2]Enemy!$G$16</f>
+        <f>[1]keine_routine!$M$9</f>
         <v>30</v>
       </c>
       <c r="T8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="str">
-        <f>[1]danma!$A$8</f>
+        <f>[2]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K9">
         <v>0.05</v>
@@ -1900,50 +2512,50 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9">
+        <f>[3]Enemy!$G$18</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="str">
+        <f>[2]danma!$A$8</f>
+        <v>dmk_laser</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="S9">
-        <f>[2]Enemy!$G$16</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="str">
-        <f>[1]danma!$A$8</f>
-        <v>dmk_laser</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>92</v>
+      <c r="E10" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>0.05</v>
@@ -1955,47 +2567,47 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S10">
-        <f>[2]Enemy!$G$16</f>
+        <f>[3]Enemy!$G$19</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
+    <row r="11" spans="1:27">
+      <c r="A11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C11" t="str">
-        <f>[1]danma!$A$6</f>
+        <f>[2]danma!$A$6</f>
         <v>dmk_mentos</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" t="s">
         <v>65</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
       </c>
       <c r="K11">
         <v>0.1</v>
@@ -2007,37 +2619,140 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" t="s">
         <v>65</v>
       </c>
-      <c r="O11" t="s">
-        <v>59</v>
-      </c>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S11">
+        <f>[1]keine_routine!$M$13</f>
         <v>30</v>
       </c>
       <c r="X11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
       <c r="AA11" t="str">
-        <f>[1]danma!$A$4</f>
+        <f>[2]danma!$A$4</f>
         <v>dmk_ball</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12">
+        <v>999999</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12">
+        <f>[1]keine_routine!$M$17</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>999999</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13">
+        <f>[1]keine_routine!$M$17</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -13,6 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
   <si>
     <t>string</t>
   </si>
@@ -347,6 +348,25 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">弹幕颜色规则
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single.单色：所有弹幕都是同一颜色，参数为颜色的RGB代码；</t>
+    </r>
+  </si>
+  <si>
+    <t>弹幕颜色</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
@@ -569,6 +589,12 @@
     <t>danmaku_damage</t>
   </si>
   <si>
+    <t>danmaku_color_rule</t>
+  </si>
+  <si>
+    <t>danmaku_color</t>
+  </si>
+  <si>
     <t>creator_apart_rule</t>
   </si>
   <si>
@@ -620,6 +646,12 @@
     <t>0|999999</t>
   </si>
   <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>95|214|213</t>
+  </si>
+  <si>
     <t>dcrt_keine_ns1_2</t>
   </si>
   <si>
@@ -711,9 +743,6 @@
   </si>
   <si>
     <t>慧音二符中的发弹点，发射能够点燃战船敌人的环形火焰弹</t>
-  </si>
-  <si>
-    <t>dmk_fire</t>
   </si>
   <si>
     <t>100|0</t>
@@ -909,13 +938,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -924,6 +946,13 @@
     <font>
       <sz val="10"/>
       <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1629,6 +1658,25 @@
         <row r="19">
           <cell r="G19">
             <v>30</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="danma"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>dmk_fire_special</v>
           </cell>
         </row>
       </sheetData>
@@ -1887,21 +1935,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="71.1272727272727" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
@@ -1917,17 +1965,19 @@
     <col min="17" max="17" width="24.5" customWidth="1"/>
     <col min="18" max="18" width="27.5" customWidth="1"/>
     <col min="19" max="19" width="16.2545454545455" customWidth="1"/>
-    <col min="20" max="20" width="20.8727272727273" customWidth="1"/>
-    <col min="21" max="21" width="19.6272727272727" customWidth="1"/>
-    <col min="22" max="22" width="21.8727272727273" customWidth="1"/>
-    <col min="23" max="23" width="26.3727272727273" customWidth="1"/>
-    <col min="24" max="24" width="20.8727272727273" customWidth="1"/>
-    <col min="25" max="25" width="27.1272727272727" customWidth="1"/>
-    <col min="26" max="26" width="21.8727272727273" customWidth="1"/>
-    <col min="27" max="27" width="26.3727272727273" customWidth="1"/>
+    <col min="20" max="20" width="20.8181818181818" customWidth="1"/>
+    <col min="21" max="21" width="15.1818181818182" customWidth="1"/>
+    <col min="22" max="22" width="20.8727272727273" customWidth="1"/>
+    <col min="23" max="23" width="19.6272727272727" customWidth="1"/>
+    <col min="24" max="24" width="21.8727272727273" customWidth="1"/>
+    <col min="25" max="25" width="26.3727272727273" customWidth="1"/>
+    <col min="26" max="26" width="20.8727272727273" customWidth="1"/>
+    <col min="27" max="27" width="27.1272727272727" customWidth="1"/>
+    <col min="28" max="28" width="21.8727272727273" customWidth="1"/>
+    <col min="29" max="29" width="26.3727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:27">
+    <row r="1" ht="15" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1989,28 +2039,34 @@
         <v>0</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="AB1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="198" customHeight="1" spans="1:27">
+    <row r="2" ht="198" customHeight="1" spans="1:29">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2068,10 +2124,10 @@
       <c r="S2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="13" t="s">
@@ -2092,118 +2148,130 @@
       <c r="AA2" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="AB2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="U3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
       <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" t="str">
         <f>[2]danma!$A$5</f>
         <v>dmk_rice</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>1.5</v>
@@ -2215,50 +2283,56 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S4">
         <f>[1]keine_routine!$M$6</f>
         <v>30</v>
       </c>
+      <c r="T4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C5" t="str">
         <f>[2]danma!$A$4</f>
         <v>dmk_ball</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>0.4</v>
@@ -2270,50 +2344,56 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S5">
         <f>[3]Enemy!$G$16</f>
         <v>30</v>
       </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C6" t="str">
         <f>[2]danma!$A$4</f>
         <v>dmk_ball</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>0.4</v>
@@ -2325,47 +2405,53 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S6">
         <f>[3]Enemy!$G$17</f>
         <v>30</v>
       </c>
+      <c r="T6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C7" t="str">
         <f>[2]danma!$A$7</f>
         <v>dmk_laserpre</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K7">
         <v>0.05</v>
@@ -2377,63 +2463,69 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S7">
         <f>[1]keine_routine!$M$7</f>
         <v>30</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="W7" t="str">
+      <c r="Y7" t="str">
         <f>[2]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C8" t="str">
         <f>[2]danma!$A$7</f>
         <v>dmk_laserpre</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K8">
         <v>0.05</v>
@@ -2445,62 +2537,68 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S8">
         <f>[1]keine_routine!$M$9</f>
         <v>30</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
-      </c>
-      <c r="V8">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8">
         <v>1</v>
       </c>
-      <c r="W8" t="s">
-        <v>86</v>
+      <c r="Y8" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C9" t="str">
         <f>[2]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K9">
         <v>0.05</v>
@@ -2512,50 +2610,56 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S9">
         <f>[3]Enemy!$G$18</f>
         <v>30</v>
       </c>
+      <c r="T9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C10" t="str">
         <f>[2]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K10">
         <v>0.05</v>
@@ -2567,47 +2671,53 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S10">
         <f>[3]Enemy!$G$19</f>
         <v>30</v>
       </c>
+      <c r="T10" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C11" t="str">
         <f>[2]danma!$A$6</f>
         <v>dmk_mentos</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K11">
         <v>0.1</v>
@@ -2619,59 +2729,66 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" t="s">
         <v>72</v>
-      </c>
-      <c r="O11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" t="s">
-        <v>68</v>
       </c>
       <c r="S11">
         <f>[1]keine_routine!$M$13</f>
         <v>30</v>
       </c>
-      <c r="X11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z11">
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AA11" t="str">
+      <c r="AC11" t="str">
         <f>[2]danma!$A$4</f>
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="C12" t="str">
+        <f>[4]danma!$A$9</f>
+        <v>dmk_fire_special</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K12">
         <v>999999</v>
@@ -2683,46 +2800,52 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
         <v>72</v>
-      </c>
-      <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" t="s">
-        <v>68</v>
       </c>
       <c r="S12">
         <f>[1]keine_routine!$M$17</f>
         <v>30</v>
       </c>
+      <c r="T12" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K13">
         <v>999999</v>
@@ -2734,20 +2857,26 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
         <v>72</v>
-      </c>
-      <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R13" t="s">
-        <v>68</v>
       </c>
       <c r="S13">
         <f>[1]keine_routine!$M$17</f>
         <v>30</v>
+      </c>
+      <c r="T13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF779B-F02A-4B5C-B811-49F2B83C77AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="1008" yWindow="6432" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -763,14 +769,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,150 +790,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,8 +813,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,216 +829,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1199,255 +875,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,72 +924,67 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="danma"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>dmk_ball</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>dmk_rice</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>dmk_mentos</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>dmk_laserpre</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>dmk_laser</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine_routine"/>
@@ -1593,47 +1022,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="danma"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>dmk_ball</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>dmk_rice</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>dmk_mentos</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>dmk_laserpre</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>dmk_laser</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1641,6 +1031,9 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="16">
+          <cell r="A16" t="str">
+            <v>enm_keine_ns1_1</v>
+          </cell>
           <cell r="G16">
             <v>30</v>
           </cell>
@@ -1667,8 +1060,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="danma"/>
     </sheetNames>
@@ -1929,55 +1325,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="71.1272727272727" customWidth="1"/>
-    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="28.8727272727273" customWidth="1"/>
-    <col min="8" max="8" width="29.2545454545455" customWidth="1"/>
-    <col min="9" max="9" width="22.8727272727273" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="17.3727272727273" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="29.1272727272727" customWidth="1"/>
-    <col min="14" max="15" width="26.8727272727273" customWidth="1"/>
-    <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
-    <col min="18" max="18" width="27.5" customWidth="1"/>
-    <col min="19" max="19" width="16.2545454545455" customWidth="1"/>
-    <col min="20" max="20" width="20.8181818181818" customWidth="1"/>
-    <col min="21" max="21" width="15.1818181818182" customWidth="1"/>
-    <col min="22" max="22" width="20.8727272727273" customWidth="1"/>
-    <col min="23" max="23" width="19.6272727272727" customWidth="1"/>
-    <col min="24" max="24" width="21.8727272727273" customWidth="1"/>
-    <col min="25" max="25" width="26.3727272727273" customWidth="1"/>
-    <col min="26" max="26" width="20.8727272727273" customWidth="1"/>
-    <col min="27" max="27" width="27.1272727272727" customWidth="1"/>
-    <col min="28" max="28" width="21.8727272727273" customWidth="1"/>
-    <col min="29" max="29" width="26.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="29.109375" customWidth="1"/>
+    <col min="14" max="15" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" customWidth="1"/>
+    <col min="22" max="22" width="20.88671875" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" customWidth="1"/>
+    <col min="24" max="24" width="21.88671875" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="20.88671875" customWidth="1"/>
+    <col min="27" max="27" width="27.109375" customWidth="1"/>
+    <col min="28" max="28" width="21.88671875" customWidth="1"/>
+    <col min="29" max="29" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:29">
+    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="198" customHeight="1" spans="1:29">
+    <row r="2" spans="1:29" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +1550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +1639,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2252,7 +1647,7 @@
         <v>65</v>
       </c>
       <c r="C4" t="str">
-        <f>[2]danma!$A$5</f>
+        <f>[1]danma!$A$5</f>
         <v>dmk_rice</v>
       </c>
       <c r="D4" t="s">
@@ -2295,7 +1690,7 @@
         <v>72</v>
       </c>
       <c r="S4">
-        <f>[1]keine_routine!$M$6</f>
+        <f>[2]keine_routine!$M$6</f>
         <v>30</v>
       </c>
       <c r="T4" t="s">
@@ -2305,7 +1700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2313,7 +1708,7 @@
         <v>76</v>
       </c>
       <c r="C5" t="str">
-        <f>[2]danma!$A$4</f>
+        <f>[1]danma!$A$4</f>
         <v>dmk_ball</v>
       </c>
       <c r="D5" t="s">
@@ -2366,7 +1761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2374,7 +1769,7 @@
         <v>82</v>
       </c>
       <c r="C6" t="str">
-        <f>[2]danma!$A$4</f>
+        <f>[1]danma!$A$4</f>
         <v>dmk_ball</v>
       </c>
       <c r="D6" t="s">
@@ -2427,7 +1822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2435,7 +1830,7 @@
         <v>85</v>
       </c>
       <c r="C7" t="str">
-        <f>[2]danma!$A$7</f>
+        <f>[1]danma!$A$7</f>
         <v>dmk_laserpre</v>
       </c>
       <c r="D7" t="s">
@@ -2475,7 +1870,7 @@
         <v>72</v>
       </c>
       <c r="S7">
-        <f>[1]keine_routine!$M$7</f>
+        <f>[2]keine_routine!$M$7</f>
         <v>30</v>
       </c>
       <c r="T7" t="s">
@@ -2494,11 +1889,11 @@
         <v>1</v>
       </c>
       <c r="Y7" t="str">
-        <f>[2]danma!$A$8</f>
+        <f>[1]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2506,7 +1901,7 @@
         <v>90</v>
       </c>
       <c r="C8" t="str">
-        <f>[2]danma!$A$7</f>
+        <f>[1]danma!$A$7</f>
         <v>dmk_laserpre</v>
       </c>
       <c r="D8" t="s">
@@ -2549,7 +1944,7 @@
         <v>72</v>
       </c>
       <c r="S8">
-        <f>[1]keine_routine!$M$9</f>
+        <f>[2]keine_routine!$M$9</f>
         <v>30</v>
       </c>
       <c r="T8" t="s">
@@ -2571,7 +1966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2579,7 +1974,7 @@
         <v>94</v>
       </c>
       <c r="C9" t="str">
-        <f>[2]danma!$A$8</f>
+        <f>[1]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
       <c r="D9" t="s">
@@ -2632,7 +2027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>97</v>
       </c>
@@ -2640,7 +2035,7 @@
         <v>98</v>
       </c>
       <c r="C10" t="str">
-        <f>[2]danma!$A$8</f>
+        <f>[1]danma!$A$8</f>
         <v>dmk_laser</v>
       </c>
       <c r="D10" t="s">
@@ -2693,7 +2088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>100</v>
       </c>
@@ -2701,7 +2096,7 @@
         <v>101</v>
       </c>
       <c r="C11" t="str">
-        <f>[2]danma!$A$6</f>
+        <f>[1]danma!$A$6</f>
         <v>dmk_mentos</v>
       </c>
       <c r="D11" t="s">
@@ -2741,7 +2136,7 @@
         <v>72</v>
       </c>
       <c r="S11">
-        <f>[1]keine_routine!$M$13</f>
+        <f>[2]keine_routine!$M$13</f>
         <v>30</v>
       </c>
       <c r="T11" t="s">
@@ -2760,11 +2155,11 @@
         <v>1</v>
       </c>
       <c r="AC11" t="str">
-        <f>[2]danma!$A$4</f>
+        <f>[1]danma!$A$4</f>
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -2812,7 +2207,7 @@
         <v>72</v>
       </c>
       <c r="S12">
-        <f>[1]keine_routine!$M$17</f>
+        <f>[2]keine_routine!$M$17</f>
         <v>30</v>
       </c>
       <c r="T12" t="s">
@@ -2822,7 +2217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -2869,7 +2264,7 @@
         <v>72</v>
       </c>
       <c r="S13">
-        <f>[1]keine_routine!$M$17</f>
+        <f>[2]keine_routine!$M$17</f>
         <v>30</v>
       </c>
       <c r="T13" t="s">
@@ -2880,8 +2275,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF779B-F02A-4B5C-B811-49F2B83C77AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13579D-208C-4423-A83E-CF8F67D4FE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="6432" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -1334,10 +1334,10 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13579D-208C-4423-A83E-CF8F67D4FE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>string</t>
   </si>
@@ -354,6 +348,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">弹幕颜色规则
 </t>
     </r>
@@ -655,7 +656,7 @@
     <t>single</t>
   </si>
   <si>
-    <t>95|214|213</t>
+    <t>39|101|216</t>
   </si>
   <si>
     <t>dcrt_keine_ns1_2</t>
@@ -743,6 +744,12 @@
   </si>
   <si>
     <t>0|360|20|160</t>
+  </si>
+  <si>
+    <t>dcrt_keine_ns2_2</t>
+  </si>
+  <si>
+    <t>慧音二非中的发弹点，同1但是颜色不同</t>
   </si>
   <si>
     <t>dcrt_keine_sc2_1</t>
@@ -769,8 +776,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +803,150 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,14 +970,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,30 +980,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -875,14 +1218,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -897,10 +1485,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -909,11 +1497,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -924,28 +1509,78 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="danma"/>
@@ -984,7 +1619,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine_routine"/>
@@ -1023,7 +1658,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1031,9 +1666,6 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="16">
-          <cell r="A16" t="str">
-            <v>enm_keine_ns1_1</v>
-          </cell>
           <cell r="G16">
             <v>30</v>
           </cell>
@@ -1060,11 +1692,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="danma"/>
     </sheetNames>
@@ -1325,232 +1954,233 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="71.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="29.109375" customWidth="1"/>
-    <col min="14" max="15" width="26.88671875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
-    <col min="18" max="18" width="27.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.21875" customWidth="1"/>
-    <col min="20" max="20" width="20.77734375" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" customWidth="1"/>
-    <col min="22" max="22" width="20.88671875" customWidth="1"/>
-    <col min="23" max="23" width="19.6640625" customWidth="1"/>
-    <col min="24" max="24" width="21.88671875" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="20.88671875" customWidth="1"/>
-    <col min="27" max="27" width="27.109375" customWidth="1"/>
-    <col min="28" max="28" width="21.88671875" customWidth="1"/>
-    <col min="29" max="29" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.4454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.4454545454545" customWidth="1"/>
+    <col min="7" max="7" width="28.8909090909091" customWidth="1"/>
+    <col min="8" max="8" width="29.2181818181818" customWidth="1"/>
+    <col min="9" max="9" width="22.8909090909091" customWidth="1"/>
+    <col min="10" max="10" width="20.4454545454545" customWidth="1"/>
+    <col min="11" max="11" width="17.3363636363636" customWidth="1"/>
+    <col min="12" max="12" width="18.4454545454545" customWidth="1"/>
+    <col min="13" max="13" width="29.1090909090909" customWidth="1"/>
+    <col min="14" max="15" width="26.8909090909091" customWidth="1"/>
+    <col min="16" max="16" width="20.4454545454545" customWidth="1"/>
+    <col min="17" max="17" width="24.4454545454545" customWidth="1"/>
+    <col min="18" max="18" width="27.4454545454545" customWidth="1"/>
+    <col min="19" max="19" width="16.2181818181818" customWidth="1"/>
+    <col min="20" max="20" width="20.7818181818182" customWidth="1"/>
+    <col min="21" max="21" width="15.2181818181818" customWidth="1"/>
+    <col min="22" max="22" width="20.8909090909091" customWidth="1"/>
+    <col min="23" max="23" width="19.6636363636364" customWidth="1"/>
+    <col min="24" max="24" width="21.8909090909091" customWidth="1"/>
+    <col min="25" max="25" width="26.3363636363636" customWidth="1"/>
+    <col min="26" max="26" width="20.8909090909091" customWidth="1"/>
+    <col min="27" max="27" width="27.1090909090909" customWidth="1"/>
+    <col min="28" max="28" width="21.8909090909091" customWidth="1"/>
+    <col min="29" max="29" width="26.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15" spans="1:29">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="198" customHeight="1" spans="1:29">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1563,16 +2193,16 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I3" t="s">
@@ -1599,19 +2229,19 @@
       <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="V3" t="s">
@@ -1620,7 +2250,7 @@
       <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="Y3" t="s">
@@ -1639,11 +2269,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C4" t="str">
@@ -1653,7 +2283,7 @@
       <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F4">
@@ -1700,11 +2330,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="str">
@@ -1714,7 +2344,7 @@
       <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F5">
@@ -1761,11 +2391,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C6" t="str">
@@ -1775,7 +2405,7 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F6">
@@ -1822,11 +2452,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C7" t="str">
@@ -1836,7 +2466,7 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F7">
@@ -1893,11 +2523,11 @@
         <v>dmk_laser</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C8" t="str">
@@ -1907,16 +2537,16 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="7" t="b">
+      <c r="H8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -1966,11 +2596,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C9" t="str">
@@ -1980,7 +2610,7 @@
       <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F9">
@@ -1989,7 +2619,7 @@
       <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>95</v>
       </c>
       <c r="J9" t="s">
@@ -2027,11 +2657,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:21">
+      <c r="A10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C10" t="str">
@@ -2041,7 +2671,7 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F10">
@@ -2050,10 +2680,10 @@
       <c r="G10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>99</v>
       </c>
       <c r="K10">
@@ -2088,11 +2718,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:29">
+      <c r="A11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C11" t="str">
@@ -2102,7 +2732,7 @@
       <c r="D11" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F11">
@@ -2159,82 +2789,116 @@
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:29">
+      <c r="A12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
+        <f>C11</f>
+        <v>dmk_mentos</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" ref="D12:AC12" si="0">D11</f>
+        <v>random</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>E11</f>
+        <v>0|360|20|160</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>world</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>static</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>world</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>static</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>straight</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0|999999</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>single</v>
+      </c>
+      <c r="U12" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>time</v>
+      </c>
+      <c r="AA12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>type</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>dmk_ball</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="str">
         <f>[4]danma!$A$9</f>
         <v>dmk_fire_special</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12">
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13">
         <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12">
-        <v>999999</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12">
-        <f>[2]keine_routine!$M$17</f>
-        <v>30</v>
-      </c>
-      <c r="T12" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -2274,9 +2938,66 @@
         <v>74</v>
       </c>
     </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>999999</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14">
+        <f>[2]keine_routine!$M$17</f>
+        <v>30</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651B3B1-443C-4971-9025-3C48C8AA1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="1524" yWindow="3252" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -776,14 +782,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,150 +803,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,8 +826,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,222 +842,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1218,255 +894,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1515,72 +949,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="danma"/>
@@ -1619,7 +1009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine_routine"/>
@@ -1658,7 +1048,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1692,8 +1082,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="danma"/>
     </sheetNames>
@@ -1954,55 +1347,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.4454545454545" customWidth="1"/>
-    <col min="2" max="2" width="71.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.4454545454545" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.4454545454545" customWidth="1"/>
-    <col min="7" max="7" width="28.8909090909091" customWidth="1"/>
-    <col min="8" max="8" width="29.2181818181818" customWidth="1"/>
-    <col min="9" max="9" width="22.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="20.4454545454545" customWidth="1"/>
-    <col min="11" max="11" width="17.3363636363636" customWidth="1"/>
-    <col min="12" max="12" width="18.4454545454545" customWidth="1"/>
-    <col min="13" max="13" width="29.1090909090909" customWidth="1"/>
-    <col min="14" max="15" width="26.8909090909091" customWidth="1"/>
-    <col min="16" max="16" width="20.4454545454545" customWidth="1"/>
-    <col min="17" max="17" width="24.4454545454545" customWidth="1"/>
-    <col min="18" max="18" width="27.4454545454545" customWidth="1"/>
-    <col min="19" max="19" width="16.2181818181818" customWidth="1"/>
-    <col min="20" max="20" width="20.7818181818182" customWidth="1"/>
-    <col min="21" max="21" width="15.2181818181818" customWidth="1"/>
-    <col min="22" max="22" width="20.8909090909091" customWidth="1"/>
-    <col min="23" max="23" width="19.6636363636364" customWidth="1"/>
-    <col min="24" max="24" width="21.8909090909091" customWidth="1"/>
-    <col min="25" max="25" width="26.3363636363636" customWidth="1"/>
-    <col min="26" max="26" width="20.8909090909091" customWidth="1"/>
-    <col min="27" max="27" width="27.1090909090909" customWidth="1"/>
-    <col min="28" max="28" width="21.8909090909091" customWidth="1"/>
-    <col min="29" max="29" width="26.3363636363636" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="29.109375" customWidth="1"/>
+    <col min="14" max="15" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" customWidth="1"/>
+    <col min="22" max="22" width="20.88671875" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" customWidth="1"/>
+    <col min="24" max="24" width="21.88671875" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="20.88671875" customWidth="1"/>
+    <col min="27" max="27" width="27.109375" customWidth="1"/>
+    <col min="28" max="28" width="21.88671875" customWidth="1"/>
+    <col min="29" max="29" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:29">
+    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="198" customHeight="1" spans="1:29">
+    <row r="2" spans="1:29" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +1572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +1661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -2330,7 +1722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2391,7 +1783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2452,7 +1844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2523,7 +1915,7 @@
         <v>dmk_laser</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2596,7 +1988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2657,7 +2049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>97</v>
       </c>
@@ -2718,7 +2110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>100</v>
       </c>
@@ -2789,7 +2181,7 @@
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:29">
+    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>104</v>
       </c>
@@ -2859,10 +2251,6 @@
       <c r="U12" t="s">
         <v>74</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
       <c r="Z12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>time</v>
@@ -2880,7 +2268,7 @@
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2938,7 +2326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -2996,8 +2384,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Documents\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9651B3B1-443C-4971-9025-3C48C8AA1E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD6AED-E134-4E08-9955-3B2951D78509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="3252" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1764" windowWidth="23040" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1356,10 +1359,10 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/settings/data/DanmakuCreator.xlsx
+++ b/settings/data/DanmakuCreator.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Documents\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD6AED-E134-4E08-9955-3B2951D78509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1764" windowWidth="23040" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="d4c" sheetId="1" r:id="rId1"/>
@@ -34,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>string</t>
   </si>
@@ -379,7 +370,47 @@
     </r>
   </si>
   <si>
-    <t>弹幕颜色</t>
+    <r>
+      <t xml:space="preserve">弹幕颜色
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依次为色相、明度，饱和度的偏差值，后两者影响较小。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发弹分段规则
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发弹分段这一部分主要用于实现发弹点比较复杂的改变。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time.按时间分段：弹幕生成一段时间后，其某一属性会变化。分段节点为自生成开始、经过多少秒会发生变化。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -390,7 +421,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">发弹分段规则
+      <t xml:space="preserve">发弹分段受影响属性
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type.弹幕种类</t>
+    </r>
+  </si>
+  <si>
+    <t>发弹分段节点</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">发弹分段参量
 </t>
     </r>
     <r>
@@ -401,7 +458,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">发弹分段这一部分主要用于实现发弹点比较复杂的改变。
+      <t>到达每一节点后，受影响属性会变为何值。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">弹幕分段规则
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">弹幕分段这一部分主要用于实现弹幕发射之后发生比较复杂的改变。
 </t>
     </r>
     <r>
@@ -424,7 +504,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">发弹分段受影响属性
+      <t xml:space="preserve">弹幕分段受影响属性
 </t>
     </r>
     <r>
@@ -439,7 +519,7 @@
     </r>
   </si>
   <si>
-    <t>发弹分段节点</t>
+    <t>弹幕分段节点</t>
   </si>
   <si>
     <r>
@@ -450,7 +530,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">发弹分段参量
+      <t xml:space="preserve">弹幕分段参量
 </t>
     </r>
     <r>
@@ -465,89 +545,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">弹幕分段规则
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">弹幕分段这一部分主要用于实现弹幕发射之后发生比较复杂的改变。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time.按时间分段：弹幕生成一段时间后，其某一属性会变化。分段节点为自生成开始、经过多少秒会发生变化。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">弹幕分段受影响属性
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type.弹幕种类</t>
-    </r>
-  </si>
-  <si>
-    <t>弹幕分段节点</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">弹幕分段参量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到达每一节点后，受影响属性会变为何值。</t>
-    </r>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -665,7 +662,7 @@
     <t>single</t>
   </si>
   <si>
-    <t>39|101|216</t>
+    <t>0|0|0</t>
   </si>
   <si>
     <t>dcrt_keine_ns1_2</t>
@@ -686,6 +683,9 @@
     <t>1|60</t>
   </si>
   <si>
+    <t>210|0|0</t>
+  </si>
+  <si>
     <t>dcrt_keine_ns1_3</t>
   </si>
   <si>
@@ -704,6 +704,9 @@
     <t>500|90</t>
   </si>
   <si>
+    <t>150|0|0</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
@@ -780,13 +783,22 @@
   </si>
   <si>
     <t>0|360|60|120</t>
+  </si>
+  <si>
+    <t>15|0|0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,10 +821,147 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,19 +973,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,36 +995,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79989013336588644"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -897,13 +1233,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,6 +1506,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -937,43 +1530,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="danma"/>
@@ -1012,7 +1634,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="keine_routine"/>
@@ -1051,7 +1673,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Enemy"/>
@@ -1085,11 +1707,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="danma"/>
     </sheetNames>
@@ -1350,54 +1969,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="71.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="29.109375" customWidth="1"/>
-    <col min="14" max="15" width="26.88671875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
-    <col min="18" max="18" width="27.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.21875" customWidth="1"/>
-    <col min="20" max="20" width="20.77734375" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" customWidth="1"/>
-    <col min="22" max="22" width="20.88671875" customWidth="1"/>
-    <col min="23" max="23" width="19.6640625" customWidth="1"/>
-    <col min="24" max="24" width="21.88671875" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="20.88671875" customWidth="1"/>
-    <col min="27" max="27" width="27.109375" customWidth="1"/>
-    <col min="28" max="28" width="21.88671875" customWidth="1"/>
-    <col min="29" max="29" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.4454545454545" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.4454545454545" customWidth="1"/>
+    <col min="7" max="7" width="28.8909090909091" customWidth="1"/>
+    <col min="8" max="8" width="29.2181818181818" customWidth="1"/>
+    <col min="9" max="9" width="22.8909090909091" customWidth="1"/>
+    <col min="10" max="10" width="20.4454545454545" customWidth="1"/>
+    <col min="11" max="11" width="17.3363636363636" customWidth="1"/>
+    <col min="12" max="12" width="18.4454545454545" customWidth="1"/>
+    <col min="13" max="13" width="29.1090909090909" customWidth="1"/>
+    <col min="14" max="15" width="26.8909090909091" customWidth="1"/>
+    <col min="16" max="16" width="20.4454545454545" customWidth="1"/>
+    <col min="17" max="17" width="24.4454545454545" customWidth="1"/>
+    <col min="18" max="18" width="27.4454545454545" customWidth="1"/>
+    <col min="19" max="19" width="16.2181818181818" customWidth="1"/>
+    <col min="20" max="20" width="20.7818181818182" customWidth="1"/>
+    <col min="21" max="21" width="15.2181818181818" customWidth="1"/>
+    <col min="22" max="22" width="20.8909090909091" customWidth="1"/>
+    <col min="23" max="23" width="19.6636363636364" customWidth="1"/>
+    <col min="24" max="24" width="21.8909090909091" customWidth="1"/>
+    <col min="25" max="25" width="26.3363636363636" customWidth="1"/>
+    <col min="26" max="26" width="20.8909090909091" customWidth="1"/>
+    <col min="27" max="27" width="27.1090909090909" customWidth="1"/>
+    <col min="28" max="28" width="21.8909090909091" customWidth="1"/>
+    <col min="29" max="29" width="26.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" spans="1:29">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="198" customHeight="1" spans="1:29">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1526,56 +2146,56 @@
       <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1594,10 +2214,10 @@
       <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="I3" t="s">
@@ -1624,19 +2244,19 @@
       <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="13" t="s">
         <v>55</v>
       </c>
       <c r="V3" t="s">
@@ -1645,7 +2265,7 @@
       <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Y3" t="s">
@@ -1664,11 +2284,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C4" t="str">
@@ -1678,7 +2298,7 @@
       <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="14" t="s">
         <v>67</v>
       </c>
       <c r="F4">
@@ -1725,11 +2345,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="str">
@@ -1739,7 +2359,7 @@
       <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F5">
@@ -1783,15 +2403,15 @@
         <v>73</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="8" t="s">
         <v>82</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="C6" t="str">
         <f>[1]danma!$A$4</f>
@@ -1800,7 +2420,7 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F6">
@@ -1813,7 +2433,7 @@
         <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>0.4</v>
@@ -1844,15 +2464,15 @@
         <v>73</v>
       </c>
       <c r="U6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="8" t="s">
         <v>85</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C7" t="str">
         <f>[1]danma!$A$7</f>
@@ -1862,7 +2482,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1902,13 +2522,13 @@
         <v>73</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -1918,12 +2538,12 @@
         <v>dmk_laser</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C8" t="str">
         <f>[1]danma!$A$7</f>
@@ -1933,15 +2553,15 @@
         <v>66</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="8" t="b">
+      <c r="H8" s="13" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -1979,24 +2599,24 @@
         <v>74</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C9" t="str">
         <f>[1]danma!$A$8</f>
@@ -2014,11 +2634,11 @@
       <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>95</v>
+      <c r="I9" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>0.05</v>
@@ -2049,15 +2669,15 @@
         <v>73</v>
       </c>
       <c r="U9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>98</v>
+    <row r="10" spans="1:29">
+      <c r="A10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C10" t="str">
         <f>[1]danma!$A$8</f>
@@ -2075,11 +2695,11 @@
       <c r="G10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>99</v>
+      <c r="I10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="K10">
         <v>0.05</v>
@@ -2110,25 +2730,25 @@
         <v>73</v>
       </c>
       <c r="U10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
+    <row r="11" spans="1:29">
+      <c r="A11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C11" t="str">
         <f>[1]danma!$A$6</f>
         <v>dmk_mentos</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2168,13 +2788,13 @@
         <v>73</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB11">
         <v>1</v>
@@ -2184,12 +2804,12 @@
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>105</v>
+    <row r="12" s="1" customFormat="1" spans="1:29">
+      <c r="A12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>C11</f>
@@ -2200,7 +2820,7 @@
         <v>random</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>E11</f>
+        <f t="shared" si="0"/>
         <v>0|360|20|160</v>
       </c>
       <c r="F12" s="1">
@@ -2271,12 +2891,12 @@
         <v>dmk_ball</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C13" t="str">
         <f>[4]danma!$A$9</f>
@@ -2286,7 +2906,7 @@
         <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2329,21 +2949,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2383,12 +3003,12 @@
         <v>73</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>